--- a/biology/Zoologie/Anableps/Anableps.xlsx
+++ b/biology/Zoologie/Anableps/Anableps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anableps ou quatre yeux forment un genre de poissons d'eau saumâtre de la famille des Anablepidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont la particularité d'avoir les yeux divisés en deux horizontalement, d'où l'appellation quatre-yeux. Lorsqu'ils sont juste sous la surface de l'eau, la moitié supérieure affleure, à l'instar des crocodiles, pour la vision aérienne. L'autre moitié reste immergée pour une vision sous-marine simultanée. Ce dédoublement de leur regard est particulièrement observable dans un aquarium permettant de voir l'animal sous tous les angles.
-Les poissons quatre yeux n'ont que deux yeux, mais ceux-ci sont spécialement adaptés à leur mode de vie en surface. Au début de leur développement, l'os frontal du poisson quatre yeux s'étend dorsalement, ce qui permet aux yeux d'être positionnés sur le dessus de la tête et d'apparaître bombés[1], ce qui permet au poisson de voir simultanément au-dessus et en-dessous de l'eau lorsqu'il flotte à la surface. Les yeux sont divisés en moitiés dorsale et ventrale, séparées par une bande de tissu pigmenté. Chaque œil possède deux pupilles et deux cornées qui filtrent la lumière sur une lentille, la réfractent sur des hémirétines distinctes et la traitent à travers un disque optique[2]. La moitié supérieure (dorsale) de l'œil est adaptée à la vision dans l'air, la moitié inférieure (ventrale) à la vision dans l'eau[3]
-. L'hémirétine ventrale se caractérise par des couches cellulaires plus épaisses contenant plus de neurones sensoriels et une acuité visuelle accrue par rapport à l'hémirétine dorsale[1].
-Une autre particularité de l'espèce est que l'organe copulateur des mâles et l'orifice génital des femelles sont situés soit à gauche soit à droite : les mâles droitiers ne peuvent s'accoupler qu'avec les femelles gauchères, et vice-versa[a],[5].
+Les poissons quatre yeux n'ont que deux yeux, mais ceux-ci sont spécialement adaptés à leur mode de vie en surface. Au début de leur développement, l'os frontal du poisson quatre yeux s'étend dorsalement, ce qui permet aux yeux d'être positionnés sur le dessus de la tête et d'apparaître bombés, ce qui permet au poisson de voir simultanément au-dessus et en-dessous de l'eau lorsqu'il flotte à la surface. Les yeux sont divisés en moitiés dorsale et ventrale, séparées par une bande de tissu pigmenté. Chaque œil possède deux pupilles et deux cornées qui filtrent la lumière sur une lentille, la réfractent sur des hémirétines distinctes et la traitent à travers un disque optique. La moitié supérieure (dorsale) de l'œil est adaptée à la vision dans l'air, la moitié inférieure (ventrale) à la vision dans l'eau
+. L'hémirétine ventrale se caractérise par des couches cellulaires plus épaisses contenant plus de neurones sensoriels et une acuité visuelle accrue par rapport à l'hémirétine dorsale.
+Une autre particularité de l'espèce est que l'organe copulateur des mâles et l'orifice génital des femelles sont situés soit à gauche soit à droite : les mâles droitiers ne peuvent s'accoupler qu'avec les femelles gauchères, et vice-versa[a],.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (30 juillet 2017)[6], World Register of Marine Species                               (30 juillet 2017)[7]  et ITIS      (30 juillet 2017)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (30 juillet 2017), World Register of Marine Species                               (30 juillet 2017)  et ITIS      (30 juillet 2017) :
 Anableps anableps (Linnaeus, 1758) ;
 Anableps dowei (Gill, 1861) ;
 Anableps microlepis (Müller et Troschel, 1844).</t>
